--- a/UpperRep/Power Analysis for UpperRep.xlsx
+++ b/UpperRep/Power Analysis for UpperRep.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19155" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Siglev=0.05,pooled taxa" sheetId="1" r:id="rId1"/>
+    <sheet name="Siglev=0.01,pooled taxa" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
   <si>
     <t>S1</t>
   </si>
@@ -549,18 +550,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -898,1415 +909,1630 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="6" width="12.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="6" width="12.140625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2.2599999999999999E-2</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="6">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.1827</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.25059999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
-        <v>8.6E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.34E-2</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="6">
+        <v>0.1048</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.15690000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.41860000000000003</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>15</v>
       </c>
-      <c r="B5" s="5">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="B5" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.22670000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.4153</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.63529999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>20</v>
       </c>
-      <c r="B6" s="5">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="6">
+        <v>0.218</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.18729999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.30630000000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.78320000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>25</v>
       </c>
-      <c r="B7" s="5">
-        <v>1.77E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="6">
+        <v>0.2954</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.2455</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.40539999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.88539999999999996</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>30</v>
       </c>
-      <c r="B8" s="5">
-        <v>3.2899999999999999E-2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.63E-2</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="6">
+        <v>0.38240000000000002</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.94499999999999995</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>35</v>
       </c>
-      <c r="B9" s="5">
-        <v>3.95E-2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4.0899999999999999E-2</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="6">
+        <v>0.47049999999999997</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.3584</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.56830000000000003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.97330000000000005</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>40</v>
       </c>
-      <c r="B10" s="5">
-        <v>5.5199999999999999E-2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5.1499999999999997E-2</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="6">
+        <v>0.53669999999999995</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.4335</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.98950000000000005</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>45</v>
       </c>
-      <c r="B11" s="5">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6.7799999999999999E-2</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="6">
+        <v>0.60309999999999997</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.99609999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>50</v>
       </c>
-      <c r="B12" s="5">
-        <v>0.1147</v>
-      </c>
-      <c r="C12" s="2">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="6">
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.99850000000000005</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <v>55</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.1363</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.1089</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="6">
+        <v>0.73089999999999999</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.60250000000000004</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.80889999999999995</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.99970000000000003</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>60</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.17979999999999999</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.1273</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="6">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.64959999999999996</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.9889</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.99950000000000006</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <v>65</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.2223</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.15210000000000001</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="6">
+        <v>0.82509999999999994</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.69450000000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.99990000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>70</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.26469999999999999</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.18479999999999999</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="B16" s="6">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.7349</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>75</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.31069999999999998</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.21479999999999999</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="B17" s="6">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>80</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.35339999999999999</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.24610000000000001</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="B18" s="6">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.80659999999999998</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.94789999999999996</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>85</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.4047</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.28089999999999998</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="B19" s="6">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.9587</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>90</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.44419999999999998</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.31879999999999997</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="B20" s="6">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.85929999999999995</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>95</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.50890000000000002</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.35489999999999999</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="6">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.8821</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>100</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.54290000000000005</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.37790000000000001</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="B22" s="6">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.90329999999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5">
+      <c r="A23" s="1">
         <v>105</v>
       </c>
-      <c r="B23" s="5">
-        <v>0.58520000000000005</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="B23" s="1">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5">
+      <c r="A24" s="1">
         <v>110</v>
       </c>
-      <c r="B24" s="5">
-        <v>0.624</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="1">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5">
+      <c r="A25" s="1">
         <v>115</v>
       </c>
-      <c r="B25" s="5">
-        <v>0.6613</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="1">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.94889999999999997</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5">
+      <c r="A26" s="1">
         <v>120</v>
       </c>
-      <c r="B26" s="5">
-        <v>0.69340000000000002</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="B26" s="1">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.95789999999999997</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="5">
+      <c r="A27" s="1">
         <v>125</v>
       </c>
-      <c r="B27" s="5">
-        <v>0.73070000000000002</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="B27" s="1">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="5">
+      <c r="A28" s="1">
         <v>130</v>
       </c>
-      <c r="B28" s="5">
-        <v>0.75860000000000005</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="B28" s="1">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="5">
+      <c r="A29" s="1">
         <v>135</v>
       </c>
-      <c r="B29" s="5">
-        <v>0.79530000000000001</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="B29" s="1">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5">
+      <c r="A30" s="1">
         <v>140</v>
       </c>
-      <c r="B30" s="5">
-        <v>0.81669999999999998</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="B30" s="1">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5">
+      <c r="A31" s="1">
         <v>145</v>
       </c>
-      <c r="B31" s="5">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="B31" s="1">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5">
+      <c r="A32" s="1">
         <v>150</v>
       </c>
-      <c r="B32" s="5">
-        <v>0.85929999999999995</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="B32" s="1">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="5">
+      <c r="A33" s="1">
         <v>155</v>
       </c>
-      <c r="B33" s="5">
-        <v>0.87649999999999995</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="B33" s="1">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5">
+      <c r="A34" s="1">
         <v>160</v>
       </c>
-      <c r="B34" s="5">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="B34" s="1">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="5">
+      <c r="A35" s="1">
         <v>165</v>
       </c>
-      <c r="B35" s="5">
-        <v>0.90980000000000005</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="B35" s="1">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="5">
+      <c r="A36" s="1">
         <v>170</v>
       </c>
-      <c r="B36" s="5">
-        <v>0.92279999999999995</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="1">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5">
+      <c r="A37" s="1">
         <v>175</v>
       </c>
-      <c r="B37" s="5">
-        <v>0.93320000000000003</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="B37" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="5">
-        <v>180</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.94079999999999997</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="5">
-        <v>185</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.95020000000000004</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="5">
-        <v>190</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.95820000000000005</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="5">
-        <v>195</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0.96220000000000006</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="5">
-        <v>200</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0.97209999999999996</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2319,10 +2545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2331,35 +2557,735 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.14080000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="10">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.2455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.41589999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.33629999999999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.58420000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.1101</v>
+      </c>
+      <c r="C7" s="10">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.45069999999999999</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.73419999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10">
+        <v>30</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.15809999999999999</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.12909999999999999</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.26979999999999998</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.57340000000000002</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.83919999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="10">
+        <v>35</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.1678</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.33550000000000002</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.68289999999999995</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.91290000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10">
+        <v>40</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.2671</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.40560000000000002</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.95279999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10">
+        <v>45</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.3306</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.25590000000000002</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.47649999999999998</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.97550000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="10">
+        <v>50</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.4027</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.2999</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.8861</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.99019999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="10">
+        <v>55</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.47220000000000001</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.99450000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="10">
+        <v>60</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.4002</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="10">
+        <v>65</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.58979999999999999</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.45590000000000003</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.71579999999999999</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="10">
+        <v>70</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.50329999999999997</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.77039999999999997</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="10">
+        <v>75</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.70369999999999999</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.80369999999999997</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.9869</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="10">
+        <v>80</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.752</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.58960000000000001</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="10">
+        <v>85</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.63029999999999997</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="10">
+        <v>90</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.8206</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.67230000000000001</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10">
+        <v>95</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.85019999999999996</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10">
+        <v>100</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.74239999999999995</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="10">
+        <v>105</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.7782</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.9506</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="10">
+        <v>110</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.9133</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.80230000000000001</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="10">
+        <v>115</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.83560000000000001</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.96940000000000004</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10">
+        <v>120</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10">
+        <v>125</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0.95750000000000002</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.87709999999999999</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10">
+        <v>130</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="10">
+        <v>135</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="10">
+        <v>140</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10">
+        <v>145</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.93059999999999998</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="E31" s="10">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10">
+        <v>150</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="10">
+        <v>155</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.9506</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.997</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="10">
+        <v>160</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="10">
+        <v>165</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="10">
+        <v>170</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0.996</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.9738</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="10">
+        <v>175</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2372,12 +3298,1500 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>5.79E-2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>8.5599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1.18E-2</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.12839999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1.52E-2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.78E-2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.107</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.2364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.1724</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.38080000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.27150000000000002</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.5353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.66849999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.1787</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.46920000000000001</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.79320000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.1139</v>
+      </c>
+      <c r="C10" s="10">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.58489999999999998</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.87239999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>0.15140000000000001</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.1222</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.2823</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.67630000000000001</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.93010000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.19869999999999999</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.1454</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.35749999999999998</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.96050000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.2505</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.19359999999999999</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.41010000000000002</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.4763</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.87119999999999997</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.98880000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>0.35909999999999997</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.26569999999999999</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.52370000000000005</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.99580000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>0.43319999999999997</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.31090000000000001</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>0.49320000000000003</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.64639999999999997</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>0.54079999999999995</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.39739999999999998</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.69159999999999999</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>0.5897</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.43780000000000002</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>0.6411</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.48349999999999999</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>95</v>
+      </c>
+      <c r="B21">
+        <v>0.69930000000000003</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>0.74009999999999998</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.57389999999999997</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>105</v>
+      </c>
+      <c r="B23">
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.61460000000000004</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>110</v>
+      </c>
+      <c r="B24">
+        <v>0.80820000000000003</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>115</v>
+      </c>
+      <c r="B25">
+        <v>0.84289999999999998</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.9173</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>120</v>
+      </c>
+      <c r="B26">
+        <v>0.87070000000000003</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.71289999999999998</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>125</v>
+      </c>
+      <c r="B27">
+        <v>0.88959999999999995</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.74990000000000001</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>130</v>
+      </c>
+      <c r="B28">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.95609999999999995</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>135</v>
+      </c>
+      <c r="B29">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.8044</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.96809999999999996</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>140</v>
+      </c>
+      <c r="B30">
+        <v>0.9385</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.81540000000000001</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>145</v>
+      </c>
+      <c r="B31">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.84740000000000004</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>150</v>
+      </c>
+      <c r="B32">
+        <v>0.96030000000000004</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.87309999999999999</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>155</v>
+      </c>
+      <c r="B33">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>160</v>
+      </c>
+      <c r="B34">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>165</v>
+      </c>
+      <c r="B35">
+        <v>0.98</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.91390000000000005</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>170</v>
+      </c>
+      <c r="B36">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.99380000000000002</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>175</v>
+      </c>
+      <c r="B37">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.12640000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="E4" s="10">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.21659999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.35249999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.33629999999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.19589999999999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.51449999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="C7" s="10">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.26829999999999998</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.66259999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10">
+        <v>30</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.17879999999999999</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.1188</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.58050000000000002</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.3508</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.78100000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="10">
+        <v>35</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.2477</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.14990000000000001</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.69140000000000001</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.43740000000000001</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.87170000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10">
+        <v>40</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.30730000000000002</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.1943</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.78380000000000005</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.52480000000000004</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.92490000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10">
+        <v>45</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.38669999999999999</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.59530000000000005</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.95489999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="10">
+        <v>50</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.27089999999999997</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.97770000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="10">
+        <v>55</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.31850000000000001</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.73529999999999995</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.99060000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="10">
+        <v>60</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.60119999999999996</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.374</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.99450000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="10">
+        <v>65</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.40360000000000001</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.99660000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="10">
+        <v>70</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.7137</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.45619999999999999</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="10">
+        <v>75</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.49869999999999998</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="10">
+        <v>80</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="10">
+        <v>85</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.5897</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="10">
+        <v>90</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.998</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10">
+        <v>95</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.8992</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.66439999999999999</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.96830000000000005</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10">
+        <v>100</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.69469999999999998</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="10">
+        <v>105</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="10">
+        <v>110</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.9889</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="10">
+        <v>115</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.95979999999999999</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10">
+        <v>120</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.81240000000000001</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10">
+        <v>125</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10">
+        <v>130</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.98140000000000005</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="10">
+        <v>135</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.9869</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="10">
+        <v>140</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10">
+        <v>145</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10">
+        <v>150</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="10">
+        <v>155</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0.996</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="10">
+        <v>160</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="D34" s="10">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="10">
+        <v>165</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="10">
+        <v>170</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0.998</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.95569999999999999</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="10">
+        <v>175</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.95860000000000001</v>
+      </c>
+      <c r="D37" s="10">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/UpperRep/Power Analysis for UpperRep.xlsx
+++ b/UpperRep/Power Analysis for UpperRep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19155" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="9600" yWindow="-15" windowWidth="9645" windowHeight="12540" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Siglev=0.05,pooled taxa" sheetId="1" r:id="rId1"/>
@@ -550,28 +550,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -907,32 +908,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F204"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="6" width="12.140625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="6" width="12.140625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -955,1149 +956,1417 @@
       <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
-        <v>9.3399999999999997E-2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>9.1800000000000007E-2</v>
+      <c r="B3" s="4">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>0.11700000000000001</v>
+        <v>0.13730000000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.1827</v>
+        <v>0.19</v>
       </c>
       <c r="F3" s="1">
-        <v>0.25059999999999999</v>
+        <v>0.22770000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>10</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.1048</v>
-      </c>
-      <c r="C4" s="6">
-        <v>9.9500000000000005E-2</v>
+      <c r="B4" s="4">
+        <v>8.43E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.1026</v>
       </c>
       <c r="D4" s="1">
-        <v>0.15690000000000001</v>
+        <v>0.18779999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.26719999999999999</v>
+        <v>0.30149999999999999</v>
       </c>
       <c r="F4" s="1">
-        <v>0.41860000000000003</v>
+        <v>0.37640000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.13350000000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.22670000000000001</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.4153</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.63529999999999998</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="7">
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.218</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.18729999999999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.30630000000000002</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.55830000000000002</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.78320000000000001</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="7">
+        <v>0.46939999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>25</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.2954</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.2455</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.40539999999999998</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.67259999999999998</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.88539999999999996</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="7">
+        <v>0.50539999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>30</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.38240000000000002</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.29749999999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.94499999999999995</v>
+        <v>14</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="7">
+        <v>0.55310000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>35</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.47049999999999997</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.3584</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.1159</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.13569999999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>0.56830000000000003</v>
+        <v>0.28949999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.85899999999999999</v>
+        <v>0.4647</v>
       </c>
       <c r="F9" s="1">
-        <v>0.97330000000000005</v>
+        <v>0.5786</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>40</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.53669999999999995</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.4335</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.98950000000000005</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="7">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.60819999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>45</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.60309999999999997</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.48849999999999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.70830000000000004</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.94469999999999998</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.99609999999999999</v>
+        <v>17</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="7">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.64670000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>50</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0.67579999999999996</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.75919999999999999</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.96489999999999998</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.99850000000000005</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="7">
+        <v>0.5615</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.67049999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>55</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0.73089999999999999</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.60250000000000004</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.80889999999999995</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.97909999999999997</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.99970000000000003</v>
+        <v>19</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="7">
+        <v>0.59530000000000005</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.69950000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>60</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0.77649999999999997</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.64959999999999996</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.16769999999999999</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.19</v>
       </c>
       <c r="D14" s="1">
-        <v>0.84840000000000004</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.9889</v>
+        <v>0.61970000000000003</v>
       </c>
       <c r="F14" s="1">
-        <v>0.99950000000000006</v>
+        <v>0.73629999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>65</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0.82509999999999994</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.69450000000000001</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.87549999999999994</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.99409999999999998</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.99990000000000001</v>
+        <v>21</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="7">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.76539999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>70</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0.85329999999999995</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.7349</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.90849999999999997</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.99580000000000002</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="7">
+        <v>0.6623</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.79200000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>75</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0.88229999999999997</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.99780000000000002</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="7">
+        <v>0.69950000000000001</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.80969999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>80</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0.91090000000000004</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.80659999999999998</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.94789999999999996</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.999</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="7">
+        <v>0.7127</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.82630000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>85</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0.92859999999999998</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0.83620000000000005</v>
+        <v>25</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.21879999999999999</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.2422</v>
       </c>
       <c r="D19" s="1">
-        <v>0.9587</v>
+        <v>0.49890000000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.99929999999999997</v>
+        <v>0.7399</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>0.84240000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>90</v>
-      </c>
-      <c r="B20" s="6">
-        <v>0.94140000000000001</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0.85929999999999995</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.5242</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.75970000000000004</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>95</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.95530000000000004</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.8821</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.97829999999999995</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.5403</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.88149999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>100</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.90329999999999999</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.89780000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>105</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.97030000000000005</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.91520000000000001</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.98640000000000005</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.57909999999999995</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>110</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.97750000000000004</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.93330000000000002</v>
+        <v>30</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.2823</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.30020000000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>0.99119999999999997</v>
+        <v>0.60329999999999995</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0.83289999999999997</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>0.91149999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>115</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.98370000000000002</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.94889999999999997</v>
+        <v>35</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.3458</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.35920000000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>0.99419999999999997</v>
+        <v>0.6885</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>0.9587</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>120</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.98740000000000006</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0.95789999999999997</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.99460000000000004</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.90620000000000001</v>
+      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>125</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.99119999999999997</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.96260000000000001</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.99550000000000005</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.72109999999999996</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>130</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.99150000000000005</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.96970000000000001</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.99670000000000003</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.7369</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>135</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.99450000000000005</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0.97319999999999995</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.93059999999999998</v>
+      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>140</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.99609999999999999</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0.97829999999999995</v>
+        <v>40</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.41539999999999999</v>
       </c>
       <c r="D30" s="1">
-        <v>0.999</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>0.93930000000000002</v>
       </c>
       <c r="F30" s="1">
-        <v>1</v>
+        <v>0.9778</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>145</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0.98260000000000003</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.99929999999999997</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>150</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.99809999999999999</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0.98529999999999995</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>155</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0.99870000000000003</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0.98929999999999996</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.99970000000000003</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.7994</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>160</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0.98980000000000001</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.99939999999999996</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.80810000000000004</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>165</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0.99199999999999999</v>
+        <v>45</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.47239999999999999</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.48130000000000001</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0.82210000000000005</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
+        <v>0.98980000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>170</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0.99329999999999996</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.99970000000000003</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.4803</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="7">
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>175</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="C37" s="6">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.49859999999999999</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="7">
+        <v>0.99319999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="1">
+        <v>48</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.50590000000000002</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.51270000000000004</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="7">
+        <v>0.99229999999999996</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="1">
+        <v>49</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.52980000000000005</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="7">
+        <v>0.99480000000000002</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="A40" s="1">
+        <v>50</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.53520000000000001</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.86990000000000001</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.99670000000000003</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="A41" s="1">
+        <v>51</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.87529999999999997</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="1">
+        <v>52</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.88790000000000002</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="A43" s="1">
+        <v>53</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.89070000000000005</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="A44" s="1">
+        <v>54</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.89939999999999998</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="A45" s="1">
+        <v>55</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.59040000000000004</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.9073</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="1">
+        <v>56</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.59089999999999998</v>
+      </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="7">
+        <v>0.99180000000000001</v>
+      </c>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="1">
+        <v>57</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.60850000000000004</v>
+      </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="7">
+        <v>0.9909</v>
+      </c>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="1">
+        <v>58</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.62209999999999999</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.61519999999999997</v>
+      </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="7">
+        <v>0.99350000000000005</v>
+      </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="A49" s="1">
+        <v>59</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.6391</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.61890000000000001</v>
+      </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="7">
+        <v>0.99260000000000004</v>
+      </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="A50" s="1">
+        <v>60</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.64390000000000003</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.93510000000000004</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.99950000000000006</v>
+      </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="A51" s="1">
+        <v>65</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.95189999999999997</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.99980000000000002</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="A52" s="1">
+        <v>66</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.68689999999999996</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="A53" s="1">
+        <v>67</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.70440000000000003</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.69510000000000005</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="A54" s="1">
+        <v>68</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.7127</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.70789999999999997</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="A55" s="1">
+        <v>69</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.71460000000000001</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.71120000000000005</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="A56" s="1">
+        <v>70</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.72009999999999996</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.99980000000000002</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="A57" s="1">
+        <v>75</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.77080000000000004</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.74439999999999995</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.9758</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.99990000000000001</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="A58" s="1">
+        <v>76</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.77210000000000001</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.75939999999999996</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="A59" s="1">
+        <v>77</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.76790000000000003</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="A60" s="1">
+        <v>78</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.7792</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="A61" s="1">
+        <v>79</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.78820000000000001</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.78779999999999994</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="A62" s="1">
+        <v>80</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.80669999999999997</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.80159999999999998</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="A63" s="1">
+        <v>81</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0.98509999999999998</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="A64" s="1">
+        <v>82</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0.98640000000000005</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="A65" s="1">
+        <v>83</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0.98740000000000006</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="A66" s="1">
+        <v>84</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0.98899999999999999</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="A67" s="1">
+        <v>85</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.83509999999999995</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.81979999999999997</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.99990000000000001</v>
+      </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="A68" s="1">
+        <v>90</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="A69" s="1">
+        <v>95</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="A70" s="1">
+        <v>100</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="A71" s="1">
+        <v>101</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="C71" s="7">
+        <v>0.89359999999999995</v>
+      </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="A72" s="1">
+        <v>102</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.90510000000000002</v>
+      </c>
+      <c r="C72" s="7">
+        <v>0.89590000000000003</v>
+      </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="A73" s="1">
+        <v>103</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="C73" s="7">
+        <v>0.90190000000000003</v>
+      </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="A74" s="1">
+        <v>104</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="C74" s="7">
+        <v>0.90759999999999996</v>
+      </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="A75" s="1">
+        <v>105</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0.90449999999999997</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="A76" s="1">
+        <v>110</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="A77" s="1">
+        <v>115</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="A78" s="1">
+        <v>120</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="A79" s="1">
+        <v>125</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.9556</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0.95079999999999998</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="A80" s="1">
+        <v>130</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="A81" s="1">
+        <v>135</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.9708</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="A82" s="1">
+        <v>140</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="A83" s="1">
+        <v>145</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0.9768</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="A84" s="1">
+        <v>150</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="A85" s="1">
+        <v>155</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="C85" s="4">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="A86" s="1">
+        <v>156</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="C86" s="7">
+        <v>0.98599999999999999</v>
+      </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="A87" s="1">
+        <v>157</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="C87" s="7">
+        <v>0.98570000000000002</v>
+      </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="A88" s="1">
+        <v>158</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="C88" s="7">
+        <v>0.98599999999999999</v>
+      </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="A89" s="1">
+        <v>159</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="C89" s="7">
+        <v>0.9859</v>
+      </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="A90" s="1">
+        <v>160</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="A91" s="1">
+        <v>165</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="A92" s="1">
+        <v>170</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="A93" s="1">
+        <v>175</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2105,7 +2374,6 @@
     <row r="95" spans="1:6">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2113,7 +2381,6 @@
     <row r="96" spans="1:6">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2121,7 +2388,6 @@
     <row r="97" spans="1:6">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2129,7 +2395,6 @@
     <row r="98" spans="1:6">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -2533,6 +2798,454 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2545,747 +3258,1558 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="6" width="12" customWidth="1"/>
+    <col min="1" max="6" width="12" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>5</v>
       </c>
-      <c r="B3" s="10">
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="C3" s="10">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="D3" s="10">
-        <v>5.9900000000000002E-2</v>
-      </c>
-      <c r="E3" s="10">
-        <v>9.4600000000000004E-2</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.14080000000000001</v>
+      <c r="B3" s="7">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4.58E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.13059999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C4" s="10">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="D4" s="10">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.2455</v>
+      <c r="B4" s="7">
+        <v>2.86E-2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.1641</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.21310000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>15</v>
       </c>
-      <c r="B5" s="10">
-        <v>5.6099999999999997E-2</v>
-      </c>
-      <c r="C5" s="10">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.23039999999999999</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.41589999999999999</v>
+      <c r="B5" s="7">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.1358</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.3493</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.4012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.4173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.44619999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7">
         <v>20</v>
       </c>
-      <c r="B6" s="10">
-        <v>7.3499999999999996E-2</v>
-      </c>
-      <c r="C6" s="10">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.14369999999999999</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.33629999999999999</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.58420000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="10">
+      <c r="B10" s="7">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.1976</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.51719999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.42120000000000002</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.54669999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.44009999999999999</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.57869999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.4738</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7">
+        <v>24</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.64539999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7">
         <v>25</v>
       </c>
-      <c r="B7" s="10">
-        <v>0.1101</v>
-      </c>
-      <c r="C7" s="10">
-        <v>9.6600000000000005E-2</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.20319999999999999</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.45069999999999999</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.73419999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10">
+      <c r="B15" s="7">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.2737</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.52590000000000003</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.6744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7">
+        <v>26</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.54459999999999997</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.69579999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.57440000000000002</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.71840000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7">
+        <v>28</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.60340000000000005</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.74419999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7">
+        <v>29</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.61339999999999995</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.76680000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7">
         <v>30</v>
       </c>
-      <c r="B8" s="10">
-        <v>0.15809999999999999</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.12909999999999999</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.26979999999999998</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.57340000000000002</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.83919999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="10">
+      <c r="B20" s="7">
+        <v>0.1003</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7">
+        <v>31</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.66579999999999995</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.80830000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7">
+        <v>32</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.82379999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7">
+        <v>33</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.70020000000000004</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7">
+        <v>34</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.86050000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7">
         <v>35</v>
       </c>
-      <c r="B9" s="10">
-        <v>0.20660000000000001</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.1678</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.33550000000000002</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.68289999999999995</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.91290000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10">
+      <c r="B25" s="7">
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.1696</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.45169999999999999</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.75160000000000005</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.87129999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="7">
+        <v>36</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.47810000000000002</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.76729999999999998</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.88470000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="7">
+        <v>37</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.48570000000000002</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.77939999999999998</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.89019999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7">
+        <v>38</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.79879999999999995</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.90610000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="7">
+        <v>39</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.81210000000000004</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.91810000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="7">
         <v>40</v>
       </c>
-      <c r="B10" s="10">
-        <v>0.2671</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.40560000000000002</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.75580000000000003</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.95279999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10">
+      <c r="B30" s="7">
+        <v>0.18459999999999999</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.20580000000000001</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.92520000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="7">
+        <v>41</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.55710000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="7">
+        <v>42</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="7">
+        <v>43</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="7">
+        <v>44</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.60750000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="7">
         <v>45</v>
       </c>
-      <c r="B11" s="10">
-        <v>0.3306</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.25590000000000002</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.47649999999999998</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.83609999999999995</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.97550000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="10">
+      <c r="B35" s="7">
+        <v>0.223</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.25240000000000001</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.61680000000000001</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.95640000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="7">
+        <v>46</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.89829999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="7">
+        <v>47</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.6573</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.90229999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="7">
+        <v>48</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.67169999999999996</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.90969999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="7">
+        <v>49</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.67869999999999997</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.9143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="7">
         <v>50</v>
       </c>
-      <c r="B12" s="10">
-        <v>0.4027</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.2999</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.55559999999999998</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.8861</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="B40" s="7">
+        <v>0.26690000000000003</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.29509999999999997</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="7">
+        <v>55</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.33939999999999998</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.95469999999999999</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.98980000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="7">
+        <v>56</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.98919999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="7">
+        <v>57</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.99260000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="7">
+        <v>58</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.99270000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="7">
+        <v>59</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.79930000000000001</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.99260000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="7">
+        <v>60</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.39639999999999997</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.99460000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="7">
+        <v>65</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.41610000000000003</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.44450000000000001</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0.85909999999999997</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0.99660000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="7">
+        <v>66</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.98550000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="7">
+        <v>67</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.98550000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="7">
+        <v>68</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.98719999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="7">
+        <v>69</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.99050000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="7">
+        <v>70</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.4904</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="7">
+        <v>71</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0.49309999999999998</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.89449999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="7">
+        <v>72</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0.49480000000000002</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.50139999999999996</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0.90780000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="7">
+        <v>73</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.5081</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="7">
+        <v>74</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.51770000000000005</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.52029999999999998</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.9153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="7">
+        <v>75</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0.52880000000000005</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="7">
+        <v>80</v>
+      </c>
+      <c r="B58" s="7">
+        <v>0.56740000000000002</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="7">
+        <v>81</v>
+      </c>
+      <c r="B59" s="7">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.57889999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="7">
+        <v>82</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.58279999999999998</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.59640000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="7">
+        <v>83</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.59630000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="7">
+        <v>84</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.6018</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="7">
+        <v>85</v>
+      </c>
+      <c r="B63" s="7">
+        <v>0.61209999999999998</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="7">
+        <v>90</v>
+      </c>
+      <c r="B64" s="7">
+        <v>0.64429999999999998</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.65390000000000004</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0.999</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="7">
+        <v>95</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.68920000000000003</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.69089999999999996</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="7">
+        <v>96</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0.70040000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="7">
+        <v>97</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0.70709999999999995</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0.69920000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="7">
+        <v>98</v>
+      </c>
+      <c r="B68" s="7">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0.70389999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="7">
+        <v>99</v>
+      </c>
+      <c r="B69" s="7">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0.7147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="7">
+        <v>100</v>
+      </c>
+      <c r="B70" s="7">
+        <v>0.7389</v>
+      </c>
+      <c r="C70" s="7">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0.9819</v>
+      </c>
+      <c r="E70" s="7">
+        <v>1</v>
+      </c>
+      <c r="F70" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="7">
+        <v>105</v>
+      </c>
+      <c r="B71" s="7">
+        <v>0.76490000000000002</v>
+      </c>
+      <c r="C71" s="7">
+        <v>0.7571</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="E71" s="7">
+        <v>1</v>
+      </c>
+      <c r="F71" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="7">
+        <v>106</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0.99080000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="7">
+        <v>107</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="7">
+        <v>108</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="7">
+        <v>109</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0.99180000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="7">
+        <v>110</v>
+      </c>
+      <c r="B76" s="7">
+        <v>0.7853</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1</v>
+      </c>
+      <c r="F76" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="7">
+        <v>111</v>
+      </c>
+      <c r="B77" s="7">
+        <v>0.79849999999999999</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0.79149999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="7">
+        <v>112</v>
+      </c>
+      <c r="B78" s="7">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="C78" s="7">
+        <v>0.78759999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="7">
+        <v>113</v>
+      </c>
+      <c r="B79" s="7">
+        <v>0.80969999999999998</v>
+      </c>
+      <c r="C79" s="7">
+        <v>0.79920000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="7">
+        <v>114</v>
+      </c>
+      <c r="B80" s="7">
+        <v>0.81289999999999996</v>
+      </c>
+      <c r="C80" s="7">
+        <v>0.81669999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="7">
+        <v>115</v>
+      </c>
+      <c r="B81" s="7">
+        <v>0.81569999999999998</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="E81" s="7">
+        <v>1</v>
+      </c>
+      <c r="F81" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="7">
+        <v>120</v>
+      </c>
+      <c r="B82" s="7">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="C82" s="7">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="E82" s="7">
+        <v>1</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="7">
+        <v>125</v>
+      </c>
+      <c r="B83" s="7">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="C83" s="7">
+        <v>0.85460000000000003</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="E83" s="7">
+        <v>1</v>
+      </c>
+      <c r="F83" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="7">
+        <v>130</v>
+      </c>
+      <c r="B84" s="7">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="C84" s="7">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0.998</v>
+      </c>
+      <c r="E84" s="7">
+        <v>1</v>
+      </c>
+      <c r="F84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="7">
+        <v>135</v>
+      </c>
+      <c r="B85" s="7">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="C85" s="7">
+        <v>0.8841</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E85" s="7">
+        <v>1</v>
+      </c>
+      <c r="F85" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="7">
+        <v>136</v>
+      </c>
+      <c r="B86" s="7">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="C86" s="7">
+        <v>0.89570000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="7">
+        <v>137</v>
+      </c>
+      <c r="B87" s="7">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="C87" s="7">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="7">
+        <v>138</v>
+      </c>
+      <c r="B88" s="7">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="C88" s="7">
+        <v>0.89949999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="7">
+        <v>139</v>
+      </c>
+      <c r="B89" s="7">
+        <v>0.9113</v>
+      </c>
+      <c r="C89" s="7">
+        <v>0.90249999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="7">
+        <v>140</v>
+      </c>
+      <c r="B90" s="7">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="C90" s="7">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="E90" s="7">
+        <v>1</v>
+      </c>
+      <c r="F90" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="7">
+        <v>145</v>
+      </c>
+      <c r="B91" s="7">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="C91" s="7">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E91" s="7">
+        <v>1</v>
+      </c>
+      <c r="F91" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="7">
+        <v>150</v>
+      </c>
+      <c r="B92" s="7">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="C92" s="7">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="D92" s="7">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="E92" s="7">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="7">
+        <v>155</v>
+      </c>
+      <c r="B93" s="7">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="C93" s="7">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="E93" s="7">
+        <v>1</v>
+      </c>
+      <c r="F93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="7">
+        <v>160</v>
+      </c>
+      <c r="B94" s="7">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="C94" s="7">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E94" s="7">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="7">
+        <v>165</v>
+      </c>
+      <c r="B95" s="7">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="C95" s="7">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="D95" s="7">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E95" s="7">
+        <v>1</v>
+      </c>
+      <c r="F95" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="7">
+        <v>170</v>
+      </c>
+      <c r="B96" s="7">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="C96" s="7">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E96" s="7">
+        <v>1</v>
+      </c>
+      <c r="F96" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="7">
+        <v>175</v>
+      </c>
+      <c r="B97" s="7">
+        <v>0.97470000000000001</v>
+      </c>
+      <c r="C97" s="7">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="D97" s="7">
+        <v>1</v>
+      </c>
+      <c r="E97" s="7">
+        <v>1</v>
+      </c>
+      <c r="F97" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="7">
+        <v>180</v>
+      </c>
+      <c r="B98" s="7">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="C98" s="7">
+        <v>0.97509999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="7">
+        <v>185</v>
+      </c>
+      <c r="B99" s="7">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="C99" s="7">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="7">
+        <v>190</v>
+      </c>
+      <c r="B100" s="7">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C100" s="7">
+        <v>0.98250000000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="7">
+        <v>195</v>
+      </c>
+      <c r="B101" s="7">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="C101" s="7">
+        <v>0.98480000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="7">
+        <v>200</v>
+      </c>
+      <c r="B102" s="7">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="C102" s="7">
+        <v>0.9879</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="7">
+        <v>201</v>
+      </c>
+      <c r="B103" s="7">
+        <v>0.98750000000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="7">
+        <v>202</v>
+      </c>
+      <c r="B104" s="7">
+        <v>0.98819999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="7">
+        <v>203</v>
+      </c>
+      <c r="B105" s="7">
+        <v>0.99070000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="7">
+        <v>204</v>
+      </c>
+      <c r="B106" s="7">
         <v>0.99019999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10">
-        <v>55</v>
-      </c>
-      <c r="B13" s="10">
-        <v>0.47220000000000001</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.35320000000000001</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.60609999999999997</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.92430000000000001</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.99450000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="10">
-        <v>60</v>
-      </c>
-      <c r="B14" s="10">
-        <v>0.53320000000000001</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.4002</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="10">
-        <v>65</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0.58979999999999999</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.45590000000000003</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.71579999999999999</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.96909999999999996</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0.99909999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="10">
-        <v>70</v>
-      </c>
-      <c r="B16" s="10">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0.50329999999999997</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0.77039999999999997</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0.98050000000000004</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="10">
-        <v>75</v>
-      </c>
-      <c r="B17" s="10">
-        <v>0.70369999999999999</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.55979999999999996</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0.80369999999999997</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0.9869</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="10">
-        <v>80</v>
-      </c>
-      <c r="B18" s="10">
-        <v>0.752</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.58960000000000001</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0.84179999999999999</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.99450000000000005</v>
-      </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="10">
-        <v>85</v>
-      </c>
-      <c r="B19" s="10">
-        <v>0.78010000000000002</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0.63029999999999997</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.87170000000000003</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0.99529999999999996</v>
-      </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="10">
-        <v>90</v>
-      </c>
-      <c r="B20" s="10">
-        <v>0.8206</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.67230000000000001</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0.89529999999999998</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0.99709999999999999</v>
-      </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10">
-        <v>95</v>
-      </c>
-      <c r="B21" s="10">
-        <v>0.85019999999999996</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.71830000000000005</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.91490000000000005</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.99809999999999999</v>
-      </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="10">
-        <v>100</v>
-      </c>
-      <c r="B22" s="10">
-        <v>0.87529999999999997</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.74239999999999995</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0.93759999999999999</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="10">
-        <v>105</v>
-      </c>
-      <c r="B23" s="10">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0.7782</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.9506</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0.99929999999999997</v>
-      </c>
-      <c r="F23" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="10">
-        <v>110</v>
-      </c>
-      <c r="B24" s="10">
-        <v>0.9133</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.80230000000000001</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="10">
-        <v>115</v>
-      </c>
-      <c r="B25" s="10">
-        <v>0.93140000000000001</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0.83560000000000001</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0.96940000000000004</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="F25" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="10">
-        <v>120</v>
-      </c>
-      <c r="B26" s="10">
-        <v>0.94489999999999996</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0.85250000000000004</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0.97629999999999995</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="10">
-        <v>125</v>
-      </c>
-      <c r="B27" s="10">
-        <v>0.95750000000000002</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0.87709999999999999</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="10">
-        <v>130</v>
-      </c>
-      <c r="B28" s="10">
-        <v>0.96340000000000003</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0.88949999999999996</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0.98440000000000005</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="F28" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="10">
-        <v>135</v>
-      </c>
-      <c r="B29" s="10">
-        <v>0.97250000000000003</v>
-      </c>
-      <c r="C29" s="10">
-        <v>0.90890000000000004</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1</v>
-      </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="10">
-        <v>140</v>
-      </c>
-      <c r="B30" s="10">
-        <v>0.97860000000000003</v>
-      </c>
-      <c r="C30" s="10">
-        <v>0.92349999999999999</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="10">
-        <v>145</v>
-      </c>
-      <c r="B31" s="10">
-        <v>0.98209999999999997</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0.93059999999999998</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.99409999999999998</v>
-      </c>
-      <c r="E31" s="10">
-        <v>1</v>
-      </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="10">
-        <v>150</v>
-      </c>
-      <c r="B32" s="10">
-        <v>0.98640000000000005</v>
-      </c>
-      <c r="C32" s="10">
-        <v>0.93979999999999997</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="E32" s="10">
-        <v>1</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="10">
-        <v>155</v>
-      </c>
-      <c r="B33" s="10">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0.9506</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.997</v>
-      </c>
-      <c r="E33" s="10">
-        <v>1</v>
-      </c>
-      <c r="F33" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="10">
-        <v>160</v>
-      </c>
-      <c r="B34" s="10">
-        <v>0.99070000000000003</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="E34" s="10">
-        <v>1</v>
-      </c>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="10">
-        <v>165</v>
-      </c>
-      <c r="B35" s="10">
-        <v>0.99450000000000005</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.96519999999999995</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0.99819999999999998</v>
-      </c>
-      <c r="E35" s="10">
-        <v>1</v>
-      </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="10">
-        <v>170</v>
-      </c>
-      <c r="B36" s="10">
-        <v>0.996</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0.9738</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="E36" s="10">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="10">
-        <v>175</v>
-      </c>
-      <c r="B37" s="10">
-        <v>0.99629999999999996</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0.97550000000000003</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="E37" s="10">
-        <v>1</v>
-      </c>
-      <c r="F37" s="10">
-        <v>1</v>
+    <row r="107" spans="1:6">
+      <c r="A107" s="7">
+        <v>205</v>
+      </c>
+      <c r="B107" s="7">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="C107" s="7">
+        <v>0.98950000000000005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="7">
+        <v>210</v>
+      </c>
+      <c r="B108" s="7">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C108" s="7">
+        <v>0.98929999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="7">
+        <v>211</v>
+      </c>
+      <c r="C109" s="7">
+        <v>0.99039999999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="7">
+        <v>212</v>
+      </c>
+      <c r="C110" s="7">
+        <v>0.99139999999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="7">
+        <v>213</v>
+      </c>
+      <c r="C111" s="7">
+        <v>0.99160000000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="7">
+        <v>214</v>
+      </c>
+      <c r="C112" s="7">
+        <v>0.99270000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="7">
+        <v>215</v>
+      </c>
+      <c r="B113" s="7">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="C113" s="7">
+        <v>0.99229999999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="7">
+        <v>220</v>
+      </c>
+      <c r="B114" s="7">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="C114" s="7">
+        <v>0.99470000000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="7">
+        <v>225</v>
+      </c>
+      <c r="B115" s="7">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="C115" s="7">
+        <v>0.99590000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3293,6 +4817,7 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3307,34 +4832,34 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3345,16 +4870,16 @@
       <c r="B3">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>5.79E-2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="6">
         <v>8.5599999999999996E-2</v>
       </c>
     </row>
@@ -3365,16 +4890,16 @@
       <c r="B4">
         <v>1.18E-2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="6">
         <v>0.12839999999999999</v>
       </c>
     </row>
@@ -3385,16 +4910,16 @@
       <c r="B5">
         <v>1.52E-2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <v>1.78E-2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="6">
         <v>0.107</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="6">
         <v>0.2364</v>
       </c>
     </row>
@@ -3405,16 +4930,16 @@
       <c r="B6">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>0.1724</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="6">
         <v>0.38080000000000003</v>
       </c>
     </row>
@@ -3425,16 +4950,16 @@
       <c r="B7">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>9.3200000000000005E-2</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>0.27150000000000002</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>0.5353</v>
       </c>
     </row>
@@ -3445,16 +4970,16 @@
       <c r="B8">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>0.12939999999999999</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>0.36359999999999998</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <v>0.66849999999999998</v>
       </c>
     </row>
@@ -3465,16 +4990,16 @@
       <c r="B9">
         <v>8.0299999999999996E-2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>0.1787</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <v>0.46920000000000001</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>0.79320000000000002</v>
       </c>
     </row>
@@ -3485,16 +5010,16 @@
       <c r="B10">
         <v>0.1139</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="6">
         <v>0.23719999999999999</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="6">
         <v>0.58489999999999998</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="6">
         <v>0.87239999999999995</v>
       </c>
     </row>
@@ -3505,16 +5030,16 @@
       <c r="B11">
         <v>0.15140000000000001</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
         <v>0.1222</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
         <v>0.2823</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="6">
         <v>0.67630000000000001</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="6">
         <v>0.93010000000000004</v>
       </c>
     </row>
@@ -3525,16 +5050,16 @@
       <c r="B12">
         <v>0.19869999999999999</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <v>0.1454</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
         <v>0.35749999999999998</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="6">
         <v>0.75029999999999997</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="6">
         <v>0.96050000000000002</v>
       </c>
     </row>
@@ -3545,16 +5070,16 @@
       <c r="B13">
         <v>0.2505</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <v>0.19359999999999999</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
         <v>0.41010000000000002</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="6">
         <v>0.82420000000000004</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="6">
         <v>0.98</v>
       </c>
     </row>
@@ -3565,16 +5090,16 @@
       <c r="B14">
         <v>0.31169999999999998</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
         <v>0.21210000000000001</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
         <v>0.4763</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="6">
         <v>0.87119999999999997</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="6">
         <v>0.98880000000000001</v>
       </c>
     </row>
@@ -3585,16 +5110,16 @@
       <c r="B15">
         <v>0.35909999999999997</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="6">
         <v>0.26569999999999999</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
         <v>0.52370000000000005</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="6">
         <v>0.91220000000000001</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <v>0.99580000000000002</v>
       </c>
     </row>
@@ -3605,16 +5130,16 @@
       <c r="B16">
         <v>0.43319999999999997</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>0.31090000000000001</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <v>0.59119999999999995</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <v>0.93889999999999996</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="6">
         <v>0.99780000000000002</v>
       </c>
     </row>
@@ -3625,16 +5150,16 @@
       <c r="B17">
         <v>0.49320000000000003</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="6">
         <v>0.35199999999999998</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="6">
         <v>0.64639999999999997</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="6">
         <v>0.96230000000000004</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="6">
         <v>0.99909999999999999</v>
       </c>
     </row>
@@ -3645,16 +5170,16 @@
       <c r="B18">
         <v>0.54079999999999995</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="6">
         <v>0.39739999999999998</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="6">
         <v>0.69159999999999999</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="6">
         <v>0.97529999999999994</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="6">
         <v>0.99990000000000001</v>
       </c>
     </row>
@@ -3665,16 +5190,16 @@
       <c r="B19">
         <v>0.5897</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="6">
         <v>0.43780000000000002</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="6">
         <v>0.75170000000000003</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <v>0.98280000000000001</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="6">
         <v>0.99980000000000002</v>
       </c>
     </row>
@@ -3685,16 +5210,16 @@
       <c r="B20">
         <v>0.6411</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="6">
         <v>0.48349999999999999</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="6">
         <v>0.78049999999999997</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="6">
         <v>0.99119999999999997</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3705,16 +5230,16 @@
       <c r="B21">
         <v>0.69930000000000003</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <v>0.52939999999999998</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
         <v>0.81389999999999996</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <v>0.99350000000000005</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3725,16 +5250,16 @@
       <c r="B22">
         <v>0.74009999999999998</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="6">
         <v>0.57389999999999997</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="6">
         <v>0.85089999999999999</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="6">
         <v>0.99590000000000001</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3745,16 +5270,16 @@
       <c r="B23">
         <v>0.77559999999999996</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="6">
         <v>0.61460000000000004</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="6">
         <v>0.87960000000000005</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="6">
         <v>0.99780000000000002</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3765,16 +5290,16 @@
       <c r="B24">
         <v>0.80820000000000003</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="6">
         <v>0.64900000000000002</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="6">
         <v>0.90069999999999995</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="6">
         <v>0.99829999999999997</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3785,16 +5310,16 @@
       <c r="B25">
         <v>0.84289999999999998</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="6">
         <v>0.69099999999999995</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="6">
         <v>0.9173</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="6">
         <v>0.99829999999999997</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3805,16 +5330,16 @@
       <c r="B26">
         <v>0.87070000000000003</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="6">
         <v>0.71289999999999998</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="6">
         <v>0.93899999999999995</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="6">
         <v>0.99970000000000003</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3825,16 +5350,16 @@
       <c r="B27">
         <v>0.88959999999999995</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="6">
         <v>0.74990000000000001</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
         <v>0.94479999999999997</v>
       </c>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10">
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3845,16 +5370,16 @@
       <c r="B28">
         <v>0.90429999999999999</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="6">
         <v>0.77439999999999998</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="6">
         <v>0.95609999999999995</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="6">
         <v>0.99980000000000002</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3865,16 +5390,16 @@
       <c r="B29">
         <v>0.92520000000000002</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="6">
         <v>0.8044</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="6">
         <v>0.96809999999999996</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="6">
         <v>0.99990000000000001</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3885,16 +5410,16 @@
       <c r="B30">
         <v>0.9385</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="6">
         <v>0.81540000000000001</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="6">
         <v>0.97529999999999994</v>
       </c>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10">
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3905,16 +5430,16 @@
       <c r="B31">
         <v>0.95199999999999996</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="6">
         <v>0.84740000000000004</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="6">
         <v>0.97809999999999997</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="6">
         <v>0.99990000000000001</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3925,16 +5450,16 @@
       <c r="B32">
         <v>0.96030000000000004</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="6">
         <v>0.87309999999999999</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="6">
         <v>0.98370000000000002</v>
       </c>
-      <c r="E32" s="10">
-        <v>1</v>
-      </c>
-      <c r="F32" s="10">
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3945,16 +5470,16 @@
       <c r="B33">
         <v>0.96599999999999997</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="6">
         <v>0.88929999999999998</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="6">
         <v>0.98850000000000005</v>
       </c>
-      <c r="E33" s="10">
-        <v>1</v>
-      </c>
-      <c r="F33" s="10">
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3965,16 +5490,16 @@
       <c r="B34">
         <v>0.97389999999999999</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="6">
         <v>0.89959999999999996</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="6">
         <v>0.99070000000000003</v>
       </c>
-      <c r="E34" s="10">
-        <v>1</v>
-      </c>
-      <c r="F34" s="10">
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3985,16 +5510,16 @@
       <c r="B35">
         <v>0.98</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="6">
         <v>0.91390000000000005</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="6">
         <v>0.99209999999999998</v>
       </c>
-      <c r="E35" s="10">
-        <v>1</v>
-      </c>
-      <c r="F35" s="10">
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4005,16 +5530,16 @@
       <c r="B36">
         <v>0.98450000000000004</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="6">
         <v>0.92849999999999999</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="6">
         <v>0.99380000000000002</v>
       </c>
-      <c r="E36" s="10">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10">
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4025,16 +5550,16 @@
       <c r="B37">
         <v>0.98839999999999995</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="6">
         <v>0.93930000000000002</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="6">
         <v>0.99580000000000002</v>
       </c>
-      <c r="E37" s="10">
-        <v>1</v>
-      </c>
-      <c r="F37" s="10">
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4050,41 +5575,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4092,19 +5617,19 @@
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="6">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>9.8599999999999993E-2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="6">
         <v>0.12640000000000001</v>
       </c>
     </row>
@@ -4112,679 +5637,679 @@
       <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="6">
         <v>0.04</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>0.13519999999999999</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>8.8400000000000006E-2</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="6">
         <v>0.21659999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10">
+      <c r="A5" s="6">
         <v>15</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
         <v>0.22289999999999999</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="6">
         <v>0.13220000000000001</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="6">
         <v>0.35249999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10">
+      <c r="A6" s="6">
         <v>20</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>8.3799999999999999E-2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>0.33629999999999999</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>0.19589999999999999</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="6">
         <v>0.51449999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>25</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="6">
         <v>0.12130000000000001</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>0.47460000000000002</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>0.26829999999999998</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>0.66259999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>30</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="6">
         <v>0.17879999999999999</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>0.1188</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>0.58050000000000002</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>0.3508</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <v>0.78100000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="10">
+      <c r="A9" s="6">
         <v>35</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="6">
         <v>0.2477</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <v>0.14990000000000001</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>0.69140000000000001</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <v>0.43740000000000001</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>0.87170000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="10">
+      <c r="A10" s="6">
         <v>40</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="6">
         <v>0.30730000000000002</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>0.1943</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="6">
         <v>0.78380000000000005</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="6">
         <v>0.52480000000000004</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="6">
         <v>0.92490000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="10">
+      <c r="A11" s="6">
         <v>45</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>0.38669999999999999</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
         <v>0.23569999999999999</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
         <v>0.84530000000000005</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="6">
         <v>0.59530000000000005</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="6">
         <v>0.95489999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="10">
+      <c r="A12" s="6">
         <v>50</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="6">
         <v>0.46139999999999998</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <v>0.27089999999999997</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
         <v>0.89590000000000003</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="6">
         <v>0.68089999999999995</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="6">
         <v>0.97770000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="10">
+      <c r="A13" s="6">
         <v>55</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="6">
         <v>0.53800000000000003</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <v>0.31850000000000001</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
         <v>0.93300000000000005</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="6">
         <v>0.73529999999999995</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="6">
         <v>0.99060000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10">
+      <c r="A14" s="6">
         <v>60</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="6">
         <v>0.60119999999999996</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
         <v>0.374</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
         <v>0.95760000000000001</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="6">
         <v>0.78879999999999995</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="6">
         <v>0.99450000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="10">
+      <c r="A15" s="6">
         <v>65</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="6">
         <v>0.65820000000000001</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="6">
         <v>0.40360000000000001</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
         <v>0.97199999999999998</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="6">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <v>0.99660000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="10">
+      <c r="A16" s="6">
         <v>70</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="6">
         <v>0.7137</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>0.45619999999999999</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <v>0.98199999999999998</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <v>0.87009999999999998</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="6">
         <v>0.99919999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="10">
+      <c r="A17" s="6">
         <v>75</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="6">
         <v>0.76959999999999995</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="6">
         <v>0.49869999999999998</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="6">
         <v>0.99009999999999998</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="6">
         <v>0.90129999999999999</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="6">
         <v>0.99890000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="10">
+      <c r="A18" s="6">
         <v>80</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="6">
         <v>0.81410000000000005</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="6">
         <v>0.54549999999999998</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="6">
         <v>0.99429999999999996</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="6">
         <v>0.92659999999999998</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="6">
         <v>0.99980000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="10">
+      <c r="A19" s="6">
         <v>85</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="6">
         <v>0.84550000000000003</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="6">
         <v>0.5897</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="6">
         <v>0.99580000000000002</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <v>0.94220000000000004</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="6">
         <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="10">
+      <c r="A20" s="6">
         <v>90</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="6">
         <v>0.86980000000000002</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="6">
         <v>0.62429999999999997</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="6">
         <v>0.998</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="6">
         <v>0.95820000000000005</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="10">
+      <c r="A21" s="6">
         <v>95</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="6">
         <v>0.8992</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <v>0.66439999999999999</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
         <v>0.99880000000000002</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <v>0.96830000000000005</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="10">
+      <c r="A22" s="6">
         <v>100</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="6">
         <v>0.92010000000000003</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="6">
         <v>0.69469999999999998</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="6">
         <v>0.99950000000000006</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="6">
         <v>0.98</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="6">
         <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="10">
+      <c r="A23" s="6">
         <v>105</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="6">
         <v>0.93320000000000003</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="6">
         <v>0.73470000000000002</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="6">
         <v>0.99960000000000004</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="6">
         <v>0.98470000000000002</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="10">
+      <c r="A24" s="6">
         <v>110</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="6">
         <v>0.94840000000000002</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="6">
         <v>0.76339999999999997</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="6">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="6">
         <v>0.9889</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="10">
+      <c r="A25" s="6">
         <v>115</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="6">
         <v>0.95979999999999999</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="6">
         <v>0.78410000000000002</v>
       </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
         <v>0.99250000000000005</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="10">
+      <c r="A26" s="6">
         <v>120</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="6">
         <v>0.96919999999999995</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="6">
         <v>0.81240000000000001</v>
       </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
         <v>0.99460000000000004</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="10">
+      <c r="A27" s="6">
         <v>125</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="6">
         <v>0.97670000000000001</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="6">
         <v>0.83220000000000005</v>
       </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
         <v>0.99490000000000001</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="10">
+      <c r="A28" s="6">
         <v>130</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="6">
         <v>0.98140000000000005</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="6">
         <v>0.85389999999999999</v>
       </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10">
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
         <v>0.99729999999999996</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="10">
+      <c r="A29" s="6">
         <v>135</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="6">
         <v>0.9869</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="6">
         <v>0.87219999999999998</v>
       </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
         <v>0.99839999999999995</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="10">
+      <c r="A30" s="6">
         <v>140</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="6">
         <v>0.98770000000000002</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="6">
         <v>0.88849999999999996</v>
       </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
         <v>0.99860000000000004</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="10">
+      <c r="A31" s="6">
         <v>145</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="6">
         <v>0.99419999999999997</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="6">
         <v>0.90239999999999998</v>
       </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
         <v>0.99950000000000006</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="10">
+      <c r="A32" s="6">
         <v>150</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="6">
         <v>0.99450000000000005</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="6">
         <v>0.91749999999999998</v>
       </c>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
         <v>0.99939999999999996</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="10">
+      <c r="A33" s="6">
         <v>155</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="6">
         <v>0.996</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="6">
         <v>0.92700000000000005</v>
       </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10">
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
         <v>0.99980000000000002</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="10">
+      <c r="A34" s="6">
         <v>160</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="6">
         <v>0.99750000000000005</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="6">
         <v>0.93710000000000004</v>
       </c>
-      <c r="D34" s="10">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
         <v>0.99980000000000002</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="10">
+      <c r="A35" s="6">
         <v>165</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="6">
         <v>0.99819999999999998</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="6">
         <v>0.94399999999999995</v>
       </c>
-      <c r="D35" s="10">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
         <v>0.99990000000000001</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="10">
+      <c r="A36" s="6">
         <v>170</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="6">
         <v>0.998</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="6">
         <v>0.95569999999999999</v>
       </c>
-      <c r="D36" s="10">
-        <v>1</v>
-      </c>
-      <c r="E36" s="10">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10">
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="10">
+      <c r="A37" s="6">
         <v>175</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="6">
         <v>0.99860000000000004</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="6">
         <v>0.95860000000000001</v>
       </c>
-      <c r="D37" s="10">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
         <v>0.99990000000000001</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="6">
         <v>1</v>
       </c>
     </row>
